--- a/Project_3_Cheat_Sheet.xlsx
+++ b/Project_3_Cheat_Sheet.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Self-Learning\Columbia Fintech BootsCamp\Online Modules\Project_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4785F13B-52E7-4D8B-8824-8E43C6B17FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="8730" yWindow="345" windowWidth="20040" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>Stagflation</t>
   </si>
@@ -122,57 +131,159 @@
   </si>
   <si>
     <t>Overheat -2</t>
+  </si>
+  <si>
+    <t>Top Performer</t>
+  </si>
+  <si>
+    <t>Worst Performer</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -180,11 +291,17 @@
     <xdr:ext cx="4905375" cy="3181350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.jpg" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -200,7 +317,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -208,11 +325,17 @@
     <xdr:ext cx="7086600" cy="5095875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="3" name="image2.jpg" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -230,7 +353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -420,136 +543,341 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.43"/>
-    <col customWidth="1" min="3" max="3" width="21.57"/>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="5" width="21.57"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="G10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="E5" s="1" t="s">
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -559,8 +887,10 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
@@ -570,8 +900,10 @@
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
@@ -581,8 +913,35 @@
       <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>